--- a/account.account 24jan2022.xlsx
+++ b/account.account 24jan2022.xlsx
@@ -4445,7 +4445,7 @@
   <dimension ref="A1:AMJ785"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D186" activeCellId="0" sqref="D186"/>
+      <selection pane="topLeft" activeCell="D164" activeCellId="0" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/account.account 24jan2022.xlsx
+++ b/account.account 24jan2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1429">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -2117,6 +2117,9 @@
   </si>
   <si>
     <t xml:space="preserve">IFS - LCP 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-2102</t>
   </si>
   <si>
     <t xml:space="preserve">IFS - FLC 2000</t>
@@ -4419,8 +4422,8 @@
   </sheetPr>
   <dimension ref="A1:E785"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A324" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B350" activeCellId="0" sqref="B350"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A237" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C253" activeCellId="0" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9239,10 +9242,10 @@
     </row>
     <row r="367" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
-        <v>651</v>
+        <v>699</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2" t="s">
@@ -9252,10 +9255,10 @@
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="2" t="s">
@@ -9265,10 +9268,10 @@
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="2" t="s">
@@ -9278,10 +9281,10 @@
     </row>
     <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2" t="s">
@@ -9291,10 +9294,10 @@
     </row>
     <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2" t="s">
@@ -9304,10 +9307,10 @@
     </row>
     <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2" t="s">
@@ -9317,10 +9320,10 @@
     </row>
     <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2" t="s">
@@ -9330,10 +9333,10 @@
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2" t="s">
@@ -9343,10 +9346,10 @@
     </row>
     <row r="375" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2" t="s">
@@ -9356,10 +9359,10 @@
     </row>
     <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="2" t="s">
@@ -9369,10 +9372,10 @@
     </row>
     <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="2" t="s">
@@ -9382,10 +9385,10 @@
     </row>
     <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="2" t="s">
@@ -9395,10 +9398,10 @@
     </row>
     <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2" t="s">
@@ -9408,10 +9411,10 @@
     </row>
     <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="2" t="s">
@@ -9421,10 +9424,10 @@
     </row>
     <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2" t="s">
@@ -9434,10 +9437,10 @@
     </row>
     <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2" t="s">
@@ -9447,10 +9450,10 @@
     </row>
     <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="2" t="s">
@@ -9460,10 +9463,10 @@
     </row>
     <row r="384" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="2" t="s">
@@ -9473,10 +9476,10 @@
     </row>
     <row r="385" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2" t="s">
@@ -9486,10 +9489,10 @@
     </row>
     <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="2" t="s">
@@ -9499,10 +9502,10 @@
     </row>
     <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="2" t="s">
@@ -9512,10 +9515,10 @@
     </row>
     <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="2" t="s">
@@ -9525,10 +9528,10 @@
     </row>
     <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="2" t="s">
@@ -9538,10 +9541,10 @@
     </row>
     <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="2" t="s">
@@ -9551,10 +9554,10 @@
     </row>
     <row r="391" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="2" t="s">
@@ -9564,10 +9567,10 @@
     </row>
     <row r="392" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="2" t="s">
@@ -9577,10 +9580,10 @@
     </row>
     <row r="393" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="2" t="s">
@@ -9590,10 +9593,10 @@
     </row>
     <row r="394" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="2" t="s">
@@ -9603,10 +9606,10 @@
     </row>
     <row r="395" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="2" t="s">
@@ -9616,10 +9619,10 @@
     </row>
     <row r="396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="2" t="s">
@@ -9629,10 +9632,10 @@
     </row>
     <row r="397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="2" t="s">
@@ -9642,10 +9645,10 @@
     </row>
     <row r="398" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="2" t="s">
@@ -9655,10 +9658,10 @@
     </row>
     <row r="399" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="2" t="s">
@@ -9668,10 +9671,10 @@
     </row>
     <row r="400" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2" t="s">
@@ -9681,10 +9684,10 @@
     </row>
     <row r="401" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2" t="s">
@@ -9694,10 +9697,10 @@
     </row>
     <row r="402" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2" t="s">
@@ -9707,10 +9710,10 @@
     </row>
     <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="2" t="s">
@@ -9720,10 +9723,10 @@
     </row>
     <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2" t="s">
@@ -9733,10 +9736,10 @@
     </row>
     <row r="405" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2" t="s">
@@ -9746,10 +9749,10 @@
     </row>
     <row r="406" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2" t="s">
@@ -9759,10 +9762,10 @@
     </row>
     <row r="407" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2" t="s">
@@ -9772,10 +9775,10 @@
     </row>
     <row r="408" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2" t="s">
@@ -9785,10 +9788,10 @@
     </row>
     <row r="409" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2" t="s">
@@ -9798,10 +9801,10 @@
     </row>
     <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2" t="s">
@@ -9811,10 +9814,10 @@
     </row>
     <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2" t="s">
@@ -9824,10 +9827,10 @@
     </row>
     <row r="412" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="2" t="s">
@@ -9837,10 +9840,10 @@
     </row>
     <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2" t="s">
@@ -9850,10 +9853,10 @@
     </row>
     <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="2" t="s">
@@ -9863,10 +9866,10 @@
     </row>
     <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="2" t="s">
@@ -9876,10 +9879,10 @@
     </row>
     <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2" t="s">
@@ -9889,10 +9892,10 @@
     </row>
     <row r="417" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2" t="s">
@@ -9902,10 +9905,10 @@
     </row>
     <row r="418" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="2" t="s">
@@ -9915,10 +9918,10 @@
     </row>
     <row r="419" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="2" t="s">
@@ -9928,10 +9931,10 @@
     </row>
     <row r="420" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="2" t="s">
@@ -9941,10 +9944,10 @@
     </row>
     <row r="421" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2" t="s">
@@ -9954,10 +9957,10 @@
     </row>
     <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2" t="s">
@@ -9967,10 +9970,10 @@
     </row>
     <row r="423" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="2" t="s">
@@ -9980,10 +9983,10 @@
     </row>
     <row r="424" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2" t="s">
@@ -9993,10 +9996,10 @@
     </row>
     <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2" t="s">
@@ -10006,10 +10009,10 @@
     </row>
     <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="2" t="s">
@@ -10019,10 +10022,10 @@
     </row>
     <row r="427" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="2" t="s">
@@ -10032,10 +10035,10 @@
     </row>
     <row r="428" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="2" t="s">
@@ -10045,10 +10048,10 @@
     </row>
     <row r="429" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2" t="s">
@@ -10058,10 +10061,10 @@
     </row>
     <row r="430" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2" t="s">
@@ -10071,10 +10074,10 @@
     </row>
     <row r="431" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2" t="s">
@@ -10084,10 +10087,10 @@
     </row>
     <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2" t="s">
@@ -10097,10 +10100,10 @@
     </row>
     <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="2" t="s">
@@ -10110,10 +10113,10 @@
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2" t="s">
@@ -10123,10 +10126,10 @@
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2" t="s">
@@ -10136,10 +10139,10 @@
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="2" t="s">
@@ -10149,10 +10152,10 @@
     </row>
     <row r="437" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="2" t="s">
@@ -10162,10 +10165,10 @@
     </row>
     <row r="438" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2" t="s">
@@ -10175,10 +10178,10 @@
     </row>
     <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="2" t="s">
@@ -10188,10 +10191,10 @@
     </row>
     <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="2" t="s">
@@ -10201,10 +10204,10 @@
     </row>
     <row r="441" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="2" t="s">
@@ -10214,10 +10217,10 @@
     </row>
     <row r="442" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2" t="s">
@@ -10227,10 +10230,10 @@
     </row>
     <row r="443" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="2" t="s">
@@ -10240,10 +10243,10 @@
     </row>
     <row r="444" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="2" t="s">
@@ -10253,10 +10256,10 @@
     </row>
     <row r="445" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2" t="s">
@@ -10266,10 +10269,10 @@
     </row>
     <row r="446" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="2" t="s">
@@ -10279,10 +10282,10 @@
     </row>
     <row r="447" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="2" t="s">
@@ -10292,10 +10295,10 @@
     </row>
     <row r="448" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="2" t="s">
@@ -10305,10 +10308,10 @@
     </row>
     <row r="449" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="2" t="s">
@@ -10318,10 +10321,10 @@
     </row>
     <row r="450" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="2" t="s">
@@ -10331,10 +10334,10 @@
     </row>
     <row r="451" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2" t="s">
@@ -10344,10 +10347,10 @@
     </row>
     <row r="452" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="2" t="s">
@@ -10357,10 +10360,10 @@
     </row>
     <row r="453" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="2" t="s">
@@ -10370,4300 +10373,4300 @@
     </row>
     <row r="454" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E454" s="2"/>
     </row>
     <row r="455" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E455" s="2"/>
     </row>
     <row r="456" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>630</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E456" s="2"/>
     </row>
     <row r="457" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>632</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E457" s="2"/>
     </row>
     <row r="458" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>634</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E458" s="2"/>
     </row>
     <row r="459" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>636</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E459" s="2"/>
     </row>
     <row r="460" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>638</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E460" s="2"/>
     </row>
     <row r="461" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>640</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E461" s="2"/>
     </row>
     <row r="462" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>642</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E462" s="2"/>
     </row>
     <row r="463" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>644</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E463" s="2"/>
     </row>
     <row r="464" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>646</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E464" s="2"/>
     </row>
     <row r="465" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>648</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E465" s="2"/>
     </row>
     <row r="466" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>650</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E466" s="2"/>
     </row>
     <row r="467" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>652</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E467" s="2"/>
     </row>
     <row r="468" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>654</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E468" s="2"/>
     </row>
     <row r="469" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>656</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E469" s="2"/>
     </row>
     <row r="470" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>658</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E470" s="2"/>
     </row>
     <row r="471" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>660</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E471" s="2"/>
     </row>
     <row r="472" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>662</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E472" s="2"/>
     </row>
     <row r="473" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>664</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E473" s="2"/>
     </row>
     <row r="474" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>666</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E474" s="2"/>
     </row>
     <row r="475" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>668</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E475" s="2"/>
     </row>
     <row r="476" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>670</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E476" s="2"/>
     </row>
     <row r="477" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>672</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E477" s="2"/>
     </row>
     <row r="478" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>674</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E478" s="2"/>
     </row>
     <row r="479" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>676</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E479" s="2"/>
     </row>
     <row r="480" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>678</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E480" s="2"/>
     </row>
     <row r="481" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>680</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E481" s="2"/>
     </row>
     <row r="482" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>682</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E482" s="2"/>
     </row>
     <row r="483" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>684</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E483" s="2"/>
     </row>
     <row r="484" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>686</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E484" s="2"/>
     </row>
     <row r="485" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>688</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E485" s="2"/>
     </row>
     <row r="486" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E486" s="2"/>
     </row>
     <row r="487" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>690</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E487" s="2"/>
     </row>
     <row r="488" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E488" s="2"/>
     </row>
     <row r="489" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>696</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E489" s="2"/>
     </row>
     <row r="490" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>698</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E490" s="2"/>
     </row>
     <row r="491" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E491" s="2"/>
     </row>
     <row r="492" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E492" s="2"/>
     </row>
     <row r="493" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E493" s="2"/>
     </row>
     <row r="494" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E494" s="2"/>
     </row>
     <row r="495" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E495" s="2"/>
     </row>
     <row r="496" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E496" s="2"/>
     </row>
     <row r="497" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E497" s="2"/>
     </row>
     <row r="498" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E498" s="2"/>
     </row>
     <row r="499" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E499" s="2"/>
     </row>
     <row r="500" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E500" s="2"/>
     </row>
     <row r="501" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E501" s="2"/>
     </row>
     <row r="502" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E502" s="2"/>
     </row>
     <row r="503" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E503" s="2"/>
     </row>
     <row r="504" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E504" s="2"/>
     </row>
     <row r="505" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E505" s="2"/>
     </row>
     <row r="506" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E506" s="2"/>
     </row>
     <row r="507" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E507" s="2"/>
     </row>
     <row r="508" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E508" s="2"/>
     </row>
     <row r="509" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E509" s="2"/>
     </row>
     <row r="510" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E510" s="2"/>
     </row>
     <row r="511" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E511" s="2"/>
     </row>
     <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E512" s="2"/>
     </row>
     <row r="513" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E513" s="2"/>
     </row>
     <row r="514" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E514" s="2"/>
     </row>
     <row r="515" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E515" s="2"/>
     </row>
     <row r="516" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E516" s="2"/>
     </row>
     <row r="517" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E517" s="2"/>
     </row>
     <row r="518" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E518" s="2"/>
     </row>
     <row r="519" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E519" s="2"/>
     </row>
     <row r="520" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E520" s="2"/>
     </row>
     <row r="521" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E521" s="2"/>
     </row>
     <row r="522" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E522" s="2"/>
     </row>
     <row r="523" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E523" s="2"/>
     </row>
     <row r="524" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E524" s="2"/>
     </row>
     <row r="525" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E525" s="2"/>
     </row>
     <row r="526" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E526" s="2"/>
     </row>
     <row r="527" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E527" s="2"/>
     </row>
     <row r="528" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E528" s="2"/>
     </row>
     <row r="529" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E529" s="2"/>
     </row>
     <row r="530" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E530" s="2"/>
     </row>
     <row r="531" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E531" s="2"/>
     </row>
     <row r="532" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E532" s="2"/>
     </row>
     <row r="533" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E533" s="2"/>
     </row>
     <row r="534" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E534" s="2"/>
     </row>
     <row r="535" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E535" s="2"/>
     </row>
     <row r="536" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E536" s="2"/>
     </row>
     <row r="537" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E537" s="2"/>
     </row>
     <row r="538" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E538" s="2"/>
     </row>
     <row r="539" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E539" s="2"/>
     </row>
     <row r="540" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E540" s="2"/>
     </row>
     <row r="541" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E541" s="2"/>
     </row>
     <row r="542" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E542" s="2"/>
     </row>
     <row r="543" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E543" s="2"/>
     </row>
     <row r="544" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C544" s="2"/>
       <c r="D544" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E544" s="2"/>
     </row>
     <row r="545" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E545" s="2"/>
     </row>
     <row r="546" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C546" s="2"/>
       <c r="D546" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E546" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E547" s="2"/>
     </row>
     <row r="548" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E548" s="2"/>
     </row>
     <row r="549" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C549" s="2"/>
       <c r="D549" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E549" s="2"/>
     </row>
     <row r="550" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E550" s="2"/>
     </row>
     <row r="551" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E551" s="2"/>
     </row>
     <row r="552" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C552" s="2"/>
       <c r="D552" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E552" s="2"/>
     </row>
     <row r="553" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E553" s="2"/>
     </row>
     <row r="554" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E554" s="2"/>
     </row>
     <row r="555" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E555" s="2"/>
     </row>
     <row r="556" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E556" s="2"/>
     </row>
     <row r="557" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E557" s="2"/>
     </row>
     <row r="558" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E560" s="2"/>
     </row>
     <row r="561" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E561" s="2"/>
     </row>
     <row r="562" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E562" s="2"/>
     </row>
     <row r="563" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E563" s="2"/>
     </row>
     <row r="564" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E566" s="2"/>
     </row>
     <row r="567" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E567" s="2"/>
     </row>
     <row r="568" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E568" s="2"/>
     </row>
     <row r="569" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E569" s="2"/>
     </row>
     <row r="570" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E571" s="2"/>
     </row>
     <row r="572" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E574" s="2"/>
     </row>
     <row r="575" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E575" s="2"/>
     </row>
     <row r="576" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E576" s="2"/>
     </row>
     <row r="577" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E577" s="2"/>
     </row>
     <row r="578" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E578" s="2"/>
     </row>
     <row r="579" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E579" s="2"/>
     </row>
     <row r="580" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E580" s="2"/>
     </row>
     <row r="581" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E581" s="2"/>
     </row>
     <row r="582" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E582" s="2"/>
     </row>
     <row r="583" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E583" s="2"/>
     </row>
     <row r="584" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E584" s="2"/>
     </row>
     <row r="585" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E585" s="2"/>
     </row>
     <row r="586" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E586" s="2"/>
     </row>
     <row r="587" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E587" s="2"/>
     </row>
     <row r="588" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E588" s="2"/>
     </row>
     <row r="589" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E589" s="2"/>
     </row>
     <row r="590" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E590" s="2"/>
     </row>
     <row r="591" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E591" s="2"/>
     </row>
     <row r="592" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E592" s="2"/>
     </row>
     <row r="593" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E593" s="2"/>
     </row>
     <row r="594" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E594" s="2"/>
     </row>
     <row r="595" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E595" s="2"/>
     </row>
     <row r="596" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E596" s="2"/>
     </row>
     <row r="597" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E597" s="2"/>
     </row>
     <row r="598" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E598" s="2"/>
     </row>
     <row r="599" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E600" s="2"/>
     </row>
     <row r="601" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E601" s="2"/>
     </row>
     <row r="602" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E602" s="2"/>
     </row>
     <row r="603" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E603" s="2"/>
     </row>
     <row r="604" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E604" s="2"/>
     </row>
     <row r="605" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E605" s="2"/>
     </row>
     <row r="606" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E606" s="2"/>
     </row>
     <row r="607" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E607" s="2"/>
     </row>
     <row r="608" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E608" s="2"/>
     </row>
     <row r="609" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E609" s="2"/>
     </row>
     <row r="610" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E610" s="2"/>
     </row>
     <row r="611" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E611" s="2"/>
     </row>
     <row r="612" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E612" s="2"/>
     </row>
     <row r="613" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E613" s="2"/>
     </row>
     <row r="614" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E614" s="2"/>
     </row>
     <row r="615" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E615" s="2"/>
     </row>
     <row r="616" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E616" s="2"/>
     </row>
     <row r="617" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E617" s="2"/>
     </row>
     <row r="618" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E618" s="2"/>
     </row>
     <row r="619" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B619" s="2" t="s">
         <v>490</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E619" s="2"/>
     </row>
     <row r="620" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B620" s="2" t="s">
         <v>492</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E620" s="2"/>
     </row>
     <row r="621" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E621" s="2"/>
     </row>
     <row r="622" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E622" s="2"/>
     </row>
     <row r="623" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E623" s="2"/>
     </row>
     <row r="624" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E624" s="2"/>
     </row>
     <row r="625" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E625" s="2"/>
     </row>
     <row r="626" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E626" s="2"/>
     </row>
     <row r="627" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E627" s="2"/>
     </row>
     <row r="628" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E628" s="2"/>
     </row>
     <row r="629" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E629" s="2"/>
     </row>
     <row r="630" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E630" s="2"/>
     </row>
     <row r="631" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E631" s="2"/>
     </row>
     <row r="632" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E632" s="2"/>
     </row>
     <row r="633" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E633" s="2"/>
     </row>
     <row r="634" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E634" s="2"/>
     </row>
     <row r="635" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E635" s="2"/>
     </row>
     <row r="636" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E636" s="2"/>
     </row>
     <row r="637" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E637" s="2"/>
     </row>
     <row r="638" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E638" s="2"/>
     </row>
     <row r="639" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E639" s="2"/>
     </row>
     <row r="640" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E640" s="2"/>
     </row>
     <row r="641" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E641" s="2"/>
     </row>
     <row r="642" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E642" s="2"/>
     </row>
     <row r="643" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E643" s="2"/>
     </row>
     <row r="644" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E644" s="2"/>
     </row>
     <row r="645" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E645" s="2"/>
     </row>
     <row r="646" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E646" s="2"/>
     </row>
     <row r="647" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E647" s="2"/>
     </row>
     <row r="648" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E648" s="2"/>
     </row>
     <row r="649" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E649" s="2"/>
     </row>
     <row r="650" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E650" s="2"/>
     </row>
     <row r="651" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E651" s="2"/>
     </row>
     <row r="652" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E652" s="2"/>
     </row>
     <row r="653" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E653" s="2"/>
     </row>
     <row r="654" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E654" s="2"/>
     </row>
     <row r="655" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E655" s="2"/>
     </row>
     <row r="656" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E657" s="2"/>
     </row>
     <row r="658" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E658" s="2"/>
     </row>
     <row r="659" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E659" s="2"/>
     </row>
     <row r="660" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E660" s="2"/>
     </row>
     <row r="661" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E661" s="2"/>
     </row>
     <row r="662" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E662" s="2"/>
     </row>
     <row r="663" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E663" s="2"/>
     </row>
     <row r="664" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E664" s="2"/>
     </row>
     <row r="665" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E665" s="2"/>
     </row>
     <row r="666" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E666" s="2"/>
     </row>
     <row r="667" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E667" s="2"/>
     </row>
     <row r="668" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E668" s="2"/>
     </row>
     <row r="669" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E669" s="2"/>
     </row>
     <row r="670" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E670" s="2"/>
     </row>
     <row r="671" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E671" s="2"/>
     </row>
     <row r="672" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E672" s="2"/>
     </row>
     <row r="673" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E673" s="2"/>
     </row>
     <row r="674" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E674" s="2"/>
     </row>
     <row r="675" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E675" s="2"/>
     </row>
     <row r="676" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E676" s="2"/>
     </row>
     <row r="677" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E677" s="2"/>
     </row>
     <row r="678" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E678" s="2"/>
     </row>
     <row r="679" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E679" s="2"/>
     </row>
     <row r="680" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E680" s="2"/>
     </row>
     <row r="681" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E681" s="2"/>
     </row>
     <row r="682" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="2" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E682" s="2"/>
     </row>
     <row r="683" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E683" s="2"/>
     </row>
     <row r="684" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E684" s="2"/>
     </row>
     <row r="685" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E685" s="2"/>
     </row>
     <row r="686" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E686" s="2"/>
     </row>
     <row r="687" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E687" s="2"/>
     </row>
     <row r="688" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E688" s="2"/>
     </row>
     <row r="689" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="2" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E691" s="2"/>
     </row>
     <row r="692" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E692" s="2"/>
     </row>
     <row r="693" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E693" s="2"/>
     </row>
     <row r="694" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E694" s="2"/>
     </row>
     <row r="695" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E695" s="2"/>
     </row>
     <row r="696" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E696" s="2"/>
     </row>
     <row r="697" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E697" s="2"/>
     </row>
     <row r="698" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E698" s="2"/>
     </row>
     <row r="699" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E699" s="2"/>
     </row>
     <row r="700" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E700" s="2"/>
     </row>
     <row r="701" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E701" s="2"/>
     </row>
     <row r="702" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="2" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E702" s="2"/>
     </row>
     <row r="703" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E703" s="2"/>
     </row>
     <row r="704" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="2" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E704" s="2"/>
     </row>
     <row r="705" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="2" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E705" s="2"/>
     </row>
     <row r="706" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E706" s="2"/>
     </row>
     <row r="707" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E707" s="2"/>
     </row>
     <row r="708" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E708" s="2"/>
     </row>
     <row r="709" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="2" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E709" s="2"/>
     </row>
     <row r="710" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="2" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E710" s="2"/>
     </row>
     <row r="711" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E711" s="2"/>
     </row>
     <row r="712" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="2" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E712" s="2"/>
     </row>
     <row r="713" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E713" s="2"/>
     </row>
     <row r="714" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E714" s="2"/>
     </row>
     <row r="715" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E715" s="2"/>
     </row>
     <row r="716" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E716" s="2"/>
     </row>
     <row r="717" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E717" s="2"/>
     </row>
     <row r="718" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="2" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B718" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E718" s="2"/>
     </row>
     <row r="719" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E719" s="2"/>
     </row>
     <row r="720" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E720" s="2"/>
     </row>
     <row r="721" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E721" s="2"/>
     </row>
     <row r="722" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E722" s="2"/>
     </row>
     <row r="723" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="2" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E723" s="2"/>
     </row>
     <row r="724" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="2" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E724" s="2"/>
     </row>
     <row r="725" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="2" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E725" s="2"/>
     </row>
     <row r="726" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="2" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E726" s="2"/>
     </row>
     <row r="727" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="2" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E727" s="2"/>
     </row>
     <row r="728" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E728" s="2"/>
     </row>
     <row r="729" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="2" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E729" s="2"/>
     </row>
     <row r="730" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="2" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E730" s="2"/>
     </row>
     <row r="731" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E731" s="2"/>
     </row>
     <row r="732" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="2" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E732" s="2"/>
     </row>
     <row r="733" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="2" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E733" s="2"/>
     </row>
     <row r="734" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="2" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E734" s="2"/>
     </row>
     <row r="735" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="2" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E735" s="2"/>
     </row>
     <row r="736" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="2" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E736" s="2"/>
     </row>
     <row r="737" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="2" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E737" s="2"/>
     </row>
     <row r="738" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="2" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E738" s="2"/>
     </row>
     <row r="739" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E739" s="2"/>
     </row>
     <row r="740" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E740" s="2"/>
     </row>
     <row r="741" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="2" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E741" s="2"/>
     </row>
     <row r="742" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E742" s="2"/>
     </row>
     <row r="743" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E743" s="2"/>
     </row>
     <row r="744" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B744" s="2" t="s">
         <v>437</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E744" s="2"/>
     </row>
     <row r="745" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="2" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B745" s="2" t="s">
         <v>439</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E745" s="2"/>
     </row>
     <row r="746" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="2" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B746" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E746" s="2"/>
     </row>
     <row r="747" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B747" s="2" t="s">
         <v>442</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E747" s="2"/>
     </row>
     <row r="748" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B748" s="2" t="s">
         <v>444</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E748" s="2"/>
     </row>
     <row r="749" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B749" s="2" t="s">
         <v>446</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E749" s="2"/>
     </row>
     <row r="750" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E750" s="2"/>
     </row>
     <row r="751" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="2" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E751" s="2"/>
     </row>
     <row r="752" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E752" s="2"/>
     </row>
     <row r="753" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E753" s="2"/>
     </row>
     <row r="754" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E754" s="2"/>
     </row>
     <row r="755" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E755" s="2"/>
     </row>
     <row r="756" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E756" s="2"/>
     </row>
     <row r="757" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E757" s="2"/>
     </row>
     <row r="758" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E758" s="2"/>
     </row>
     <row r="759" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E759" s="2"/>
     </row>
     <row r="760" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="2" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E760" s="2"/>
     </row>
     <row r="761" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E761" s="2"/>
     </row>
     <row r="762" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E762" s="2"/>
     </row>
     <row r="763" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E763" s="2"/>
     </row>
     <row r="764" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E764" s="2"/>
     </row>
     <row r="765" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E765" s="2"/>
     </row>
     <row r="766" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E766" s="2"/>
     </row>
     <row r="767" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E767" s="2"/>
     </row>
     <row r="768" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E768" s="2"/>
     </row>
     <row r="769" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="2" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E769" s="2"/>
     </row>
     <row r="770" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="2" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E770" s="2"/>
     </row>
     <row r="771" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E771" s="2"/>
     </row>
     <row r="772" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E772" s="2"/>
     </row>
     <row r="773" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E773" s="2"/>
     </row>
     <row r="774" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E774" s="2"/>
     </row>
     <row r="775" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E775" s="2"/>
     </row>
     <row r="776" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="2" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E776" s="2"/>
     </row>
     <row r="777" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E777" s="2"/>
     </row>
     <row r="778" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="2" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E778" s="2"/>
     </row>
     <row r="779" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E779" s="2"/>
     </row>
     <row r="780" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E780" s="2"/>
     </row>
     <row r="781" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E781" s="2"/>
     </row>
     <row r="782" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E782" s="2"/>
     </row>
     <row r="783" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E783" s="2"/>
     </row>
     <row r="784" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="2" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2" t="s">
@@ -14673,10 +14676,10 @@
     </row>
     <row r="785" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2" t="s">
